--- a/selenium/src/main/java/resources/testData.xlsx
+++ b/selenium/src/main/java/resources/testData.xlsx
@@ -1,39 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F27D7423-F59E-4532-9148-A9BD70CB6907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{0DA1AEFF-AD2E-4179-8B64-471A8A496789}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{ADF6A3F8-C7DC-4108-8EAC-19841A205778}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="77">
   <si>
     <t>TestCases</t>
   </si>
@@ -152,9 +140,6 @@
     <t>narration test</t>
   </si>
   <si>
-    <t xml:space="preserve">kumar jarvis </t>
-  </si>
-  <si>
     <t>this is other donation type</t>
   </si>
   <si>
@@ -203,9 +188,6 @@
     <t>Demand Draft</t>
   </si>
   <si>
-    <t xml:space="preserve">kumar tech </t>
-  </si>
-  <si>
     <t>IMPS</t>
   </si>
   <si>
@@ -230,16 +212,46 @@
     <t>kumar technology</t>
   </si>
   <si>
-    <t>kumar</t>
-  </si>
-  <si>
-    <t>kumar tech</t>
-  </si>
-  <si>
     <t>Koderma</t>
   </si>
   <si>
     <t>Jharkhand</t>
+  </si>
+  <si>
+    <t>kumar techno</t>
+  </si>
+  <si>
+    <t>kumar limitted</t>
+  </si>
+  <si>
+    <t>kumaram pvt</t>
+  </si>
+  <si>
+    <t>kumarm soft</t>
+  </si>
+  <si>
+    <t>Text for others category</t>
+  </si>
+  <si>
+    <t>che</t>
+  </si>
+  <si>
+    <t>rt</t>
+  </si>
+  <si>
+    <t>ne</t>
+  </si>
+  <si>
+    <t>dd</t>
+  </si>
+  <si>
+    <t>imp</t>
+  </si>
+  <si>
+    <t>up</t>
+  </si>
+  <si>
+    <t>cas</t>
   </si>
 </sst>
 </file>
@@ -592,10 +604,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85BA5E4B-0F0B-4B20-9258-3CAC815DDAEB}">
-  <dimension ref="A1:Y15"/>
+  <dimension ref="A1:Z15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="R15" sqref="R15"/>
+    <sheetView tabSelected="1" topLeftCell="X8" workbookViewId="0">
+      <selection activeCell="Z11" sqref="Z11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -623,9 +635,11 @@
     <col min="22" max="22" width="32.28515625" customWidth="1"/>
     <col min="23" max="23" width="17.140625" customWidth="1"/>
     <col min="24" max="24" width="16.28515625" customWidth="1"/>
+    <col min="25" max="25" width="16.7109375" customWidth="1"/>
+    <col min="26" max="26" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -701,8 +715,11 @@
       <c r="Y1" t="s">
         <v>28</v>
       </c>
+      <c r="Z1" t="s">
+        <v>69</v>
+      </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -716,7 +733,7 @@
         <v>227244</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -775,27 +792,30 @@
         <v>38</v>
       </c>
       <c r="T3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U3">
         <v>9999999990</v>
       </c>
       <c r="V3" t="s">
+        <v>39</v>
+      </c>
+      <c r="W3" t="s">
         <v>40</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>41</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>42</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>44</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
@@ -807,7 +827,7 @@
         <v>227244</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F5">
         <v>3</v>
@@ -819,7 +839,7 @@
         <v>30</v>
       </c>
       <c r="I5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J5">
         <v>5566644455</v>
@@ -831,16 +851,16 @@
         <v>33</v>
       </c>
       <c r="M5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N5">
         <v>110001</v>
       </c>
       <c r="O5" t="s">
+        <v>47</v>
+      </c>
+      <c r="P5" t="s">
         <v>48</v>
-      </c>
-      <c r="P5" t="s">
-        <v>49</v>
       </c>
       <c r="Q5" t="s">
         <v>37</v>
@@ -852,27 +872,30 @@
         <v>38</v>
       </c>
       <c r="T5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U5">
         <v>9999999990</v>
       </c>
       <c r="V5" t="s">
+        <v>39</v>
+      </c>
+      <c r="W5" t="s">
         <v>40</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>41</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>42</v>
       </c>
-      <c r="Y5" t="s">
-        <v>43</v>
+      <c r="Z5" t="s">
+        <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
@@ -884,7 +907,7 @@
         <v>227244</v>
       </c>
       <c r="E7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F7">
         <v>10</v>
@@ -896,7 +919,7 @@
         <v>30</v>
       </c>
       <c r="I7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J7">
         <v>5566644455</v>
@@ -908,16 +931,16 @@
         <v>33</v>
       </c>
       <c r="M7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N7">
         <v>110001</v>
       </c>
       <c r="O7" t="s">
+        <v>47</v>
+      </c>
+      <c r="P7" t="s">
         <v>48</v>
-      </c>
-      <c r="P7" t="s">
-        <v>49</v>
       </c>
       <c r="Q7" t="s">
         <v>37</v>
@@ -929,27 +952,30 @@
         <v>38</v>
       </c>
       <c r="T7" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="U7">
         <v>9999999990</v>
       </c>
       <c r="V7" t="s">
+        <v>39</v>
+      </c>
+      <c r="W7" t="s">
         <v>40</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>41</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>42</v>
       </c>
-      <c r="Y7" t="s">
-        <v>43</v>
+      <c r="Z7" t="s">
+        <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
@@ -961,7 +987,7 @@
         <v>227244</v>
       </c>
       <c r="E9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F9">
         <v>2</v>
@@ -973,7 +999,7 @@
         <v>30</v>
       </c>
       <c r="I9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J9">
         <v>5566644455</v>
@@ -985,16 +1011,16 @@
         <v>33</v>
       </c>
       <c r="M9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N9">
         <v>825410</v>
       </c>
       <c r="O9" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="P9" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="Q9" t="s">
         <v>37</v>
@@ -1006,27 +1032,30 @@
         <v>38</v>
       </c>
       <c r="T9" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="U9">
         <v>9999999990</v>
       </c>
       <c r="V9" t="s">
+        <v>39</v>
+      </c>
+      <c r="W9" t="s">
         <v>40</v>
       </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>41</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Y9" t="s">
         <v>42</v>
       </c>
-      <c r="Y9" t="s">
-        <v>43</v>
+      <c r="Z9" t="s">
+        <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B11" t="s">
         <v>4</v>
@@ -1038,7 +1067,7 @@
         <v>227244</v>
       </c>
       <c r="E11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F11">
         <v>2</v>
@@ -1050,7 +1079,7 @@
         <v>30</v>
       </c>
       <c r="I11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J11">
         <v>5566644455</v>
@@ -1062,19 +1091,19 @@
         <v>33</v>
       </c>
       <c r="M11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N11">
         <v>110001</v>
       </c>
       <c r="O11" t="s">
+        <v>47</v>
+      </c>
+      <c r="P11" t="s">
         <v>48</v>
       </c>
-      <c r="P11" t="s">
-        <v>49</v>
-      </c>
       <c r="Q11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="R11">
         <v>90999</v>
@@ -1083,27 +1112,30 @@
         <v>38</v>
       </c>
       <c r="T11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="U11">
         <v>9999999990</v>
       </c>
       <c r="V11" t="s">
+        <v>39</v>
+      </c>
+      <c r="W11" t="s">
         <v>40</v>
       </c>
-      <c r="W11" t="s">
+      <c r="X11" t="s">
         <v>41</v>
       </c>
-      <c r="X11" t="s">
+      <c r="Y11" t="s">
         <v>42</v>
       </c>
-      <c r="Y11" t="s">
-        <v>43</v>
+      <c r="Z11" t="s">
+        <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B13" t="s">
         <v>4</v>
@@ -1115,7 +1147,7 @@
         <v>227244</v>
       </c>
       <c r="E13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F13">
         <v>2</v>
@@ -1127,7 +1159,7 @@
         <v>30</v>
       </c>
       <c r="I13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J13">
         <v>5566644455</v>
@@ -1139,16 +1171,16 @@
         <v>33</v>
       </c>
       <c r="M13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N13">
         <v>110001</v>
       </c>
       <c r="O13" t="s">
+        <v>47</v>
+      </c>
+      <c r="P13" t="s">
         <v>48</v>
-      </c>
-      <c r="P13" t="s">
-        <v>49</v>
       </c>
       <c r="Q13" t="s">
         <v>37</v>
@@ -1160,27 +1192,30 @@
         <v>38</v>
       </c>
       <c r="T13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="U13">
         <v>9999999990</v>
       </c>
       <c r="V13" t="s">
+        <v>39</v>
+      </c>
+      <c r="W13" t="s">
         <v>40</v>
       </c>
-      <c r="W13" t="s">
+      <c r="X13" t="s">
         <v>41</v>
       </c>
-      <c r="X13" t="s">
+      <c r="Y13" t="s">
         <v>42</v>
       </c>
-      <c r="Y13" t="s">
-        <v>43</v>
+      <c r="Z13" t="s">
+        <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B15" t="s">
         <v>4</v>
@@ -1192,7 +1227,7 @@
         <v>227244</v>
       </c>
       <c r="E15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F15">
         <v>6</v>
@@ -1204,7 +1239,7 @@
         <v>30</v>
       </c>
       <c r="I15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J15">
         <v>5566644455</v>
@@ -1216,16 +1251,16 @@
         <v>33</v>
       </c>
       <c r="M15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N15">
         <v>110001</v>
       </c>
       <c r="O15" t="s">
+        <v>47</v>
+      </c>
+      <c r="P15" t="s">
         <v>48</v>
-      </c>
-      <c r="P15" t="s">
-        <v>49</v>
       </c>
       <c r="Q15" t="s">
         <v>37</v>
@@ -1237,22 +1272,25 @@
         <v>38</v>
       </c>
       <c r="T15" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="U15">
         <v>9999999990</v>
       </c>
       <c r="V15" t="s">
+        <v>39</v>
+      </c>
+      <c r="W15" t="s">
         <v>40</v>
       </c>
-      <c r="W15" t="s">
+      <c r="X15" t="s">
         <v>41</v>
       </c>
-      <c r="X15" t="s">
+      <c r="Y15" t="s">
         <v>42</v>
       </c>
-      <c r="Y15" t="s">
-        <v>43</v>
+      <c r="Z15" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
